--- a/Test Cases - Final.xlsx
+++ b/Test Cases - Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\IFB299\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidan\OneDrive\IFB299\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="AD8841B08B4B1DD32DE01378F4470C0A1B5959D3" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{D8450E18-4C8F-4D00-B2EB-79CCFAE771F9}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="6_{DCA0CF92-A5A5-4BF3-BED5-D195B46DD3C7}" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{0EDB8029-69D7-44A8-9420-8F4FCBD959FF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STH Live Project Test Cases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="118">
   <si>
     <t>Steps:</t>
   </si>
@@ -462,6 +462,29 @@
 3. Login Button
 4. Register new user
 </t>
+  </si>
+  <si>
+    <t>My City_TC_15</t>
+  </si>
+  <si>
+    <t>When the administrator goes to create a user account, they should be able to do it from a separate webpage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. My City site is lauched on a compatible browser
+2. user is not a registered user for the admin page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. navigate to the unique url for the admin registration page. </t>
+  </si>
+  <si>
+    <t>Valid Username: Aidan
+valid password: aidanlamb</t>
+  </si>
+  <si>
+    <t>When a user registers for an admin account, they should be able to access the django admin.</t>
+  </si>
+  <si>
+    <t>add a user to the admin user group</t>
   </si>
 </sst>
 </file>
@@ -694,7 +717,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -760,97 +783,103 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1552,87 +1581,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="55.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="45.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="45"/>
       <c r="E2"/>
       <c r="F2" s="16"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="45"/>
       <c r="E3"/>
       <c r="F3" s="16"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="47"/>
       <c r="E4"/>
       <c r="F4" s="16"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="48">
         <v>43035</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="45"/>
       <c r="E5"/>
       <c r="F5" s="16"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="48">
         <v>43040</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="45"/>
       <c r="E6"/>
       <c r="F6" s="16"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
@@ -1658,89 +1687,89 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="11" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="53"/>
-    </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="191.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="9" customFormat="1" ht="140.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="54"/>
-    </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:8" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="53"/>
-    </row>
-    <row r="14" spans="1:8" s="22" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="28"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" s="22" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
@@ -1750,7 +1779,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" s="22" customFormat="1" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="22" customFormat="1" ht="1.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
@@ -1760,43 +1789,43 @@
       <c r="G15" s="19"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:8" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="52" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="31"/>
+    <row r="17" spans="1:8" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="1:8" ht="112.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="1:8" ht="112.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -1822,7 +1851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -1848,7 +1877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1858,43 +1887,43 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" spans="1:8" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:8" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="52" t="s">
         <v>109</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+    <row r="22" spans="1:8" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+    </row>
+    <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
@@ -1920,7 +1949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="136.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="136.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -1946,43 +1975,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="53" t="s">
         <v>84</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+    <row r="26" spans="1:8" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="55"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="53"/>
+      <c r="H26" s="51"/>
+    </row>
+    <row r="27" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
@@ -2008,7 +2037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
@@ -2034,7 +2063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>34</v>
       </c>
@@ -2060,43 +2089,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+    <row r="30" spans="1:8" ht="106.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="53" t="s">
         <v>82</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+    <row r="31" spans="1:8" ht="106.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="55"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-    </row>
-    <row r="32" spans="1:8" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+    </row>
+    <row r="32" spans="1:8" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
@@ -2122,7 +2151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -2148,43 +2177,34 @@
         <v>45</v>
       </c>
     </row>
+    <row r="34" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="A30:A31"/>
@@ -2199,6 +2219,41 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" xr:uid="{195D56E1-C340-4575-907F-A10A9C6F1740}"/>
